--- a/data/trans_dic/P16A07-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A07-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,0; 1,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,18; 1,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0,04; 2,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,84; 3,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,23; 1,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,23; 1,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,75; 5,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,49; 1,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,22; 1,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,23; 1,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,52; 3,25</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,59; 2,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,7; 2,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,48; 2,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,07; 2,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,94; 4,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>1,83; 4,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,18; 3,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,71; 5,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,39; 2,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,54; 3,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,92; 2,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>1,13; 3,08</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,2; 3,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,95; 5,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,25; 3,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,45; 4,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,37; 5,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>6,03; 10,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,94; 5,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>3,15; 6,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,1; 4,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,33; 7,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,34; 4,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>2,69; 4,76</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,61%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,13; 3,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,05; 5,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,52; 3,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,42; 7,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>6,74; 11,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>7,2; 11,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>6,41; 10,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>6,7; 9,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,3; 7,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>5,07; 7,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>4,33; 6,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>5,34; 7,95</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,3%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>2,11; 5,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>3,86; 8,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>2,31; 6,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,22; 7,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>9,42; 16,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>12,8; 19,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>8,59; 14,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>10,79; 15,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>6,4; 10,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>8,94; 13,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>5,96; 9,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>7,93; 10,87</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,45%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,58; 6,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>3,34; 7,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,77; 4,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,92; 5,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,87; 12,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>9,66; 14,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>10,16; 15,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>6,89; 11,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>6,0; 9,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>7,43; 10,72</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>6,79; 9,96</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>5,95; 8,64</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,65%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,68; 2,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,52; 3,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,72; 2,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,86; 4,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,64; 7,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,41; 9,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,29; 8,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>6,56; 8,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,86; 4,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,21; 6,38</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,25; 5,28</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,12; 6,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A07-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,22%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,25</t>
+          <t>0,04; 2,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 5,94</t>
+          <t>0,7; 5,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,25</t>
+          <t>0,46; 2,87</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,72%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,2</t>
+          <t>0,04; 1,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,39</t>
+          <t>1,4; 4,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,08</t>
+          <t>0,99; 2,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,73</t>
+          <t>1,45; 4,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,15</t>
+          <t>3,18; 6,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,76</t>
+          <t>2,71; 4,78</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>5,71%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 7,17</t>
+          <t>1,55; 6,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,7; 9,83</t>
+          <t>6,24; 9,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 7,95</t>
+          <t>3,58; 7,23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>9,22%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,22; 7,8</t>
+          <t>4,2; 7,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,79; 15,12</t>
+          <t>10,72; 15,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,93; 10,87</t>
+          <t>7,85; 10,77</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>5,83%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,21</t>
+          <t>1,97; 6,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,47</t>
+          <t>2,33; 7,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,59</t>
+          <t>0,86; 4,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,29</t>
+          <t>1,3; 3,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,87; 12,55</t>
+          <t>7,33; 13,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,66; 14,87</t>
+          <t>9,72; 16,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,16; 15,36</t>
+          <t>10,34; 17,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,89; 11,75</t>
+          <t>3,1; 12,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,16</t>
+          <t>5,37; 9,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 10,72</t>
+          <t>6,98; 11,48</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,96</t>
+          <t>6,11; 10,32</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,95; 8,64</t>
+          <t>2,64; 7,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>8,5%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,51; 8,61</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2,99; 9,43</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 6,59</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4,07; 8,55</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6,9; 13,85</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8,35; 15,01</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8,66; 15,89</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8,18; 12,29</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 10,76</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6,86; 11,57</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6,64; 11,29</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6,97; 10,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7,17%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4,33%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>1,68; 2,68</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,52; 3,91</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1,72; 2,77</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 4,16</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2,44; 3,91</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>5,64; 7,33</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>7,41; 9,44</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>6,29; 8,08</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>6,56; 8,36</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5,75; 8,0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>3,86; 4,86</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>5,21; 6,38</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>4,25; 5,28</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>5,12; 6,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4,55; 5,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A07-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,32 +725,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,17</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,71</t>
+          <t>0,18; 1,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,26</t>
+          <t>0,0; 1,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,41</t>
+          <t>0,84; 3,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,9</t>
+          <t>0,23; 1,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,27 +760,27 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,4</t>
+          <t>0,7; 5,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,87</t>
+          <t>0,48; 1,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,39</t>
+          <t>0,25; 1,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,34</t>
+          <t>0,23; 1,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,87</t>
+          <t>0,48; 3,07</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,17</t>
+          <t>0,55; 2,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,86</t>
+          <t>0,73; 2,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,03</t>
+          <t>0,33; 2,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,98</t>
+          <t>0,04; 1,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,92</t>
+          <t>1,92; 4,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,88</t>
+          <t>1,92; 5,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,45</t>
+          <t>1,18; 3,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,6</t>
+          <t>1,21; 4,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,96</t>
+          <t>1,4; 3,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,34</t>
+          <t>1,56; 3,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,36</t>
+          <t>0,9; 2,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,8</t>
+          <t>0,98; 3,0</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,66</t>
+          <t>1,18; 3,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,19</t>
+          <t>1,91; 4,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,36</t>
+          <t>1,15; 3,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,76</t>
+          <t>1,43; 4,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,25</t>
+          <t>2,47; 5,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 10,36</t>
+          <t>6,06; 10,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,96</t>
+          <t>2,88; 5,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,11</t>
+          <t>3,32; 6,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,04</t>
+          <t>2,12; 4,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,01</t>
+          <t>4,4; 7,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,22</t>
+          <t>2,31; 4,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,78</t>
+          <t>2,62; 4,75</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,85</t>
+          <t>1,17; 3,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,36</t>
+          <t>2,03; 5,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,92</t>
+          <t>1,45; 4,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,33</t>
+          <t>1,71; 6,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,74; 11,53</t>
+          <t>6,64; 11,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 11,69</t>
+          <t>7,26; 11,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,41; 10,89</t>
+          <t>6,53; 11,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 9,57</t>
+          <t>6,27; 9,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,14</t>
+          <t>4,23; 7,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 7,82</t>
+          <t>4,94; 7,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,88</t>
+          <t>4,36; 6,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,23</t>
+          <t>3,28; 7,27</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,98</t>
+          <t>2,13; 5,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 8,64</t>
+          <t>3,67; 8,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,28</t>
+          <t>2,41; 6,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,86</t>
+          <t>4,15; 8,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,42; 16,06</t>
+          <t>9,58; 16,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,8; 19,66</t>
+          <t>12,53; 19,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,59; 14,24</t>
+          <t>8,67; 14,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,72; 15,02</t>
+          <t>10,56; 14,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,4; 10,25</t>
+          <t>6,44; 10,22</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,94; 13,31</t>
+          <t>8,87; 13,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,47</t>
+          <t>6,03; 9,54</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,85; 10,77</t>
+          <t>7,93; 10,72</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,43</t>
+          <t>2,16; 6,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,33; 7,47</t>
+          <t>2,34; 7,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,34</t>
+          <t>0,86; 4,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,97</t>
+          <t>1,37; 3,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,33; 13,66</t>
+          <t>7,33; 13,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,72; 16,63</t>
+          <t>9,41; 16,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,34; 17,55</t>
+          <t>10,43; 17,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,1; 12,71</t>
+          <t>3,16; 12,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,37; 9,26</t>
+          <t>5,33; 9,38</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,98; 11,48</t>
+          <t>6,97; 11,24</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,11; 10,32</t>
+          <t>6,25; 10,62</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,9</t>
+          <t>3,04; 8,03</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,51; 8,61</t>
+          <t>2,51; 8,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,99; 9,43</t>
+          <t>3,05; 9,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 6,59</t>
+          <t>2,24; 6,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,07; 8,55</t>
+          <t>4,17; 8,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,9; 13,85</t>
+          <t>6,63; 13,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,35; 15,01</t>
+          <t>8,49; 15,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,66; 15,89</t>
+          <t>8,49; 15,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,18; 12,29</t>
+          <t>8,17; 12,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,72; 10,76</t>
+          <t>5,59; 10,4</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,57</t>
+          <t>6,99; 11,58</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,64; 11,29</t>
+          <t>6,69; 11,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,97; 10,23</t>
+          <t>7,08; 10,13</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,68</t>
+          <t>1,68; 2,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,91</t>
+          <t>2,53; 3,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,77</t>
+          <t>1,7; 2,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,91</t>
+          <t>2,45; 3,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,64; 7,33</t>
+          <t>5,63; 7,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,41; 9,44</t>
+          <t>7,41; 9,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,29; 8,08</t>
+          <t>6,29; 8,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,75; 8,0</t>
+          <t>5,76; 7,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,86; 4,86</t>
+          <t>3,84; 4,81</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5,21; 6,38</t>
+          <t>5,28; 6,44</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,25; 5,28</t>
+          <t>4,19; 5,23</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,55; 5,83</t>
+          <t>4,53; 5,82</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido antidepresivos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2837</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2034</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1503</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8490</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3033</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2880</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7229</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9442</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5870</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4914</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8732</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4750</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>800; 7142</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9058</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7084</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3930; 15220</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>979; 8209</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>924; 7726</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2200; 18695</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4663; 16829</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2243; 12504</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1899; 10970</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3420; 21866</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8925</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10687</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5904</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2287</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19307</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>19298</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11813</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13787</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>28232</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>29985</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17717</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16074</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4065; 15865</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5004; 20492</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1972; 11838</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>164; 7186</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12038; 30173</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11684; 31722</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6641; 20139</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6189; 23469</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>19018; 41014</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20238; 43718</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10412; 26644</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9158; 28096</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13696</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21483</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13954</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14218</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>25532</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>56323</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27904</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24693</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>39228</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>77806</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>41858</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>38911</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7517; 22521</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12982; 33916</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7676; 23007</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7661; 23300</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17071; 38338</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>42890; 72600</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19063; 38496</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17992; 32894</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28203; 53269</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>61039; 97894</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>30671; 55368</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>28262; 51213</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11725</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>20833</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16295</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>34881</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>46033</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>57101</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>55467</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>56444</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>57758</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>77934</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>71762</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>91324</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6057; 20229</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12456; 33762</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9366; 26646</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15211; 56184</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>34231; 59200</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>44581; 73436</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>42357; 72393</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>44669; 69784</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>43766; 73417</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>60680; 95855</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>56453; 89570</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>52547; 116351</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13912</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24805</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19119</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>32795</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>50759</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>71123</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>55933</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>69072</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>64671</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>95927</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>75053</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>101867</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8237; 21577</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15663; 36044</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11518; 30152</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>23247; 46383</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>38718; 65704</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>56105; 87543</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>43092; 71079</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>57524; 80821</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>50909; 80847</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>77580; 116304</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>58809; 93007</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>87618; 118457</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10989</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>13362</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6627</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8778</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>35039</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>46122</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>50515</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>48197</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>46028</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>59484</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>57142</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>56975</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6311; 19659</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7202; 22700</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2892; 13440</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5048; 14449</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>25121; 46552</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>33315; 59457</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>39406; 67226</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>19202; 77952</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>33846; 59622</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>46152; 74412</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>44478; 75603</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>29658; 78388</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>9901</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>13826</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>10273</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>17294</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>33021</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>43605</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>47178</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>42775</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>42922</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>57432</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>57451</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>60069</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>5260; 17868</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>7608; 24260</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>5751; 17733</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>11774; 24938</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>22145; 45229</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>32731; 59224</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>33983; 63094</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>34681; 52575</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>30386; 56535</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>44342; 73517</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>43941; 73856</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>50024; 71581</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>70100</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>107832</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>74207</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>111757</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>218181</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>296605</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>251691</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>262196</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>288281</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>404437</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>325898</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>373953</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>55089; 85755</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>86572; 133555</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>57849; 91412</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>84745; 135474</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>190280; 246748</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>262752; 328478</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>223043; 283410</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>210501; 291456</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>255230; 320257</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>367529; 448340</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>290464; 362774</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>322144; 414280</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>